--- a/ceremonies/參（辭）駕禮.xlsx
+++ b/ceremonies/參（辭）駕禮.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Xepht\Documents\Temple\Ceremonies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Xepht\Documents\Xepht\Scripts\Temple\phonetic guide\ceremonies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3197F2-607D-4876-B94A-D83B292BAFEE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A0166D-8D14-4E86-8544-5F56C369A75A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="615" windowWidth="27150" windowHeight="17385" xr2:uid="{DF0FECF8-C99E-4A21-9030-3C0ACF01A9BD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{DF0FECF8-C99E-4A21-9030-3C0ACF01A9BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
   <si>
     <t>row</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>ㄘㄢ  ㄘˊ  ㄐㄧㄚ` ㄌㄧˇ ㄅㄧ` ㄔㄨㄟˊ ㄕㄡˇ ㄐㄩ ㄍㄨㄥ</t>
-  </si>
-  <si>
-    <t>rowZhuyin</t>
   </si>
 </sst>
 </file>
@@ -629,26 +626,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7EC50-C7B6-4E37-AC1D-CBBE08DDCAC0}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -657,18 +655,15 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -676,19 +671,16 @@
       <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -696,19 +688,16 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -716,19 +705,16 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>2</v>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -736,19 +722,16 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>3</v>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -756,19 +739,16 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>3</v>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -776,19 +756,16 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>4</v>
+      <c r="B8" t="s">
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -796,19 +773,16 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>4</v>
+      <c r="B9" t="s">
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -816,19 +790,16 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>5</v>
+      <c r="B10" t="s">
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -836,19 +807,16 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11">
-        <v>5</v>
+      <c r="B11" t="s">
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -856,18 +824,15 @@
       <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
@@ -876,19 +841,16 @@
       <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13">
-        <v>6</v>
+      <c r="B13" t="s">
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -896,19 +858,16 @@
       <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="B14">
-        <v>7</v>
+      <c r="B14" t="s">
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -916,18 +875,15 @@
       <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
@@ -936,19 +892,16 @@
       <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16">
-        <v>8</v>
+      <c r="B16" t="s">
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -956,19 +909,16 @@
       <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17">
-        <v>8</v>
+      <c r="B17" t="s">
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -976,19 +926,16 @@
       <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="B18">
-        <v>9</v>
+      <c r="B18" t="s">
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -996,19 +943,16 @@
       <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19">
-        <v>9</v>
+      <c r="B19" t="s">
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -1016,19 +960,16 @@
       <c r="D19" t="s">
         <v>33</v>
       </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
-      <c r="B20">
-        <v>10</v>
+      <c r="B20" t="s">
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -1036,19 +977,16 @@
       <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21">
-        <v>10</v>
+      <c r="B21" t="s">
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -1056,19 +994,16 @@
       <c r="D21" t="s">
         <v>33</v>
       </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22">
-        <v>11</v>
+      <c r="B22" t="s">
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -1076,19 +1011,16 @@
       <c r="D22" t="s">
         <v>29</v>
       </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
-      <c r="B23">
-        <v>11</v>
+      <c r="B23" t="s">
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -1096,19 +1028,16 @@
       <c r="D23" t="s">
         <v>33</v>
       </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
-      <c r="B24">
-        <v>12</v>
+      <c r="B24" t="s">
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
@@ -1116,19 +1045,16 @@
       <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="B25">
-        <v>12</v>
+      <c r="B25" t="s">
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1136,19 +1062,16 @@
       <c r="D25" t="s">
         <v>33</v>
       </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13</v>
       </c>
-      <c r="B26">
-        <v>13</v>
+      <c r="B26" t="s">
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -1156,19 +1079,16 @@
       <c r="D26" t="s">
         <v>40</v>
       </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>14</v>
       </c>
-      <c r="B27">
-        <v>14</v>
+      <c r="B27" t="s">
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -1176,19 +1096,16 @@
       <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14</v>
       </c>
-      <c r="B28">
-        <v>14</v>
+      <c r="B28" t="s">
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
@@ -1196,19 +1113,16 @@
       <c r="D28" t="s">
         <v>33</v>
       </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>15</v>
       </c>
-      <c r="B29">
-        <v>15</v>
+      <c r="B29" t="s">
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>46</v>
@@ -1216,19 +1130,16 @@
       <c r="D29" t="s">
         <v>47</v>
       </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
-      <c r="B30">
-        <v>15</v>
+      <c r="B30" t="s">
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1236,19 +1147,16 @@
       <c r="D30" t="s">
         <v>33</v>
       </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>16</v>
       </c>
-      <c r="B31">
-        <v>16</v>
+      <c r="B31" t="s">
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>54</v>
@@ -1256,19 +1164,16 @@
       <c r="D31" t="s">
         <v>55</v>
       </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>16</v>
       </c>
-      <c r="B32">
-        <v>16</v>
+      <c r="B32" t="s">
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -1276,19 +1181,16 @@
       <c r="D32" t="s">
         <v>33</v>
       </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>17</v>
       </c>
-      <c r="B33">
-        <v>17</v>
+      <c r="B33" t="s">
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
@@ -1296,19 +1198,16 @@
       <c r="D33" t="s">
         <v>45</v>
       </c>
-      <c r="E33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>17</v>
       </c>
-      <c r="B34">
-        <v>17</v>
+      <c r="B34" t="s">
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
@@ -1316,19 +1215,16 @@
       <c r="D34" t="s">
         <v>33</v>
       </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>18</v>
       </c>
-      <c r="B35">
-        <v>18</v>
+      <c r="B35" t="s">
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>52</v>
@@ -1336,19 +1232,16 @@
       <c r="D35" t="s">
         <v>53</v>
       </c>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>18</v>
       </c>
-      <c r="B36">
-        <v>18</v>
+      <c r="B36" t="s">
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
@@ -1356,19 +1249,16 @@
       <c r="D36" t="s">
         <v>33</v>
       </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>19</v>
       </c>
-      <c r="B37">
-        <v>19</v>
+      <c r="B37" t="s">
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>48</v>
@@ -1376,19 +1266,16 @@
       <c r="D37" t="s">
         <v>49</v>
       </c>
-      <c r="E37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>19</v>
       </c>
-      <c r="B38">
-        <v>19</v>
+      <c r="B38" t="s">
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
@@ -1396,10 +1283,7 @@
       <c r="D38" t="s">
         <v>51</v>
       </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>80</v>
       </c>
     </row>

--- a/ceremonies/參（辭）駕禮.xlsx
+++ b/ceremonies/參（辭）駕禮.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Xepht\Documents\Xepht\Scripts\Temple\phonetic guide\ceremonies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A0166D-8D14-4E86-8544-5F56C369A75A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E390F2F1-FEDF-4FFB-AD4E-9A1C55F976A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{DF0FECF8-C99E-4A21-9030-3C0ACF01A9BD}"/>
   </bookViews>
@@ -159,24 +159,6 @@
     <t>center</t>
   </si>
   <si>
-    <t>向點傳師參（辭）駕</t>
-  </si>
-  <si>
-    <t>xiàng diǎn chuán shī cān  cí  jià</t>
-  </si>
-  <si>
-    <t>向諸位點傳師接（送）駕</t>
-  </si>
-  <si>
-    <t>xiàng zhū wèi diǎn chuán shī jiē  sòng  jià</t>
-  </si>
-  <si>
-    <t>向點傳師接（送）駕</t>
-  </si>
-  <si>
-    <t>xiàng diǎn chuán shī jiē  sòng  jià</t>
-  </si>
-  <si>
     <t>起作揖</t>
   </si>
   <si>
@@ -189,18 +171,6 @@
     <t>cān  cí  jià lǐ bì chuí shǒu jū gōng</t>
   </si>
   <si>
-    <t>向諸位點傳師參接（辭送）駕</t>
-  </si>
-  <si>
-    <t>xiàng zhū wèi diǎn chuán shī cān jiē  cí sòng  jià</t>
-  </si>
-  <si>
-    <t>向諸位點傳師參（辭）駕</t>
-  </si>
-  <si>
-    <t>xiàng zhū wèi diǎn chuán shī cān  cí  jià</t>
-  </si>
-  <si>
     <t>zhuyin</t>
   </si>
   <si>
@@ -258,22 +228,52 @@
     <t>ㄘㄢ  ㄘˊ  ㄐㄧㄚ` ㄌㄧˇ</t>
   </si>
   <si>
-    <t>ㄒㄧㄤ` ㄉㄧㄢˇ ㄔㄨㄢˊ ㄕ ㄘㄢ  ㄘˊ  ㄐㄧㄚ`</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄤ` ㄉㄧㄢˇ ㄔㄨㄢˊ ㄕ ㄐㄧㄝ  ㄙㄨㄥ`  ㄐㄧㄚ`</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄤ` ㄓㄨ ㄨㄟ` ㄉㄧㄢˇ ㄔㄨㄢˊ ㄕ ㄘㄢ  ㄘˊ  ㄐㄧㄚ`</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄤ` ㄓㄨ ㄨㄟ` ㄉㄧㄢˇ ㄔㄨㄢˊ ㄕ ㄐㄧㄝ  ㄙㄨㄥ`  ㄐㄧㄚ`</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄤ` ㄓㄨ ㄨㄟ` ㄉㄧㄢˇ ㄔㄨㄢˊ ㄕ ㄘㄢ ㄐㄧㄝ  ㄘˊ ㄙㄨㄥ`  ㄐㄧㄚ`</t>
-  </si>
-  <si>
     <t>ㄘㄢ  ㄘˊ  ㄐㄧㄚ` ㄌㄧˇ ㄅㄧ` ㄔㄨㄟˊ ㄕㄡˇ ㄐㄩ ㄍㄨㄥ</t>
+  </si>
+  <si>
+    <t>　向點傳師參（辭）駕</t>
+  </si>
+  <si>
+    <t>　向點傳師接（送）駕</t>
+  </si>
+  <si>
+    <t>　向諸位點傳師參（辭）駕</t>
+  </si>
+  <si>
+    <t>　向諸位點傳師接（送）駕</t>
+  </si>
+  <si>
+    <t>　向諸位點傳師參接（辭送）駕</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xiàng diǎn chuán shī cān  cí  jià</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xiàng diǎn chuán shī jiē  sòng  jià</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xiàng zhū wèi diǎn chuán shī cān  cí  jià</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xiàng zhū wèi diǎn chuán shī jiē  sòng  jià</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xiàng zhū wèi diǎn chuán shī cān jiē  cí sòng  jià</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ㄒㄧㄤ` ㄉㄧㄢˇ ㄔㄨㄢˊ ㄕ ㄘㄢ  ㄘˊ  ㄐㄧㄚ`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ㄒㄧㄤ` ㄉㄧㄢˇ ㄔㄨㄢˊ ㄕ ㄐㄧㄝ  ㄙㄨㄥ`  ㄐㄧㄚ`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ㄒㄧㄤ` ㄓㄨ ㄨㄟ` ㄉㄧㄢˇ ㄔㄨㄢˊ ㄕ ㄘㄢ  ㄘˊ  ㄐㄧㄚ`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ㄒㄧㄤ` ㄓㄨ ㄨㄟ` ㄉㄧㄢˇ ㄔㄨㄢˊ ㄕ ㄐㄧㄝ  ㄙㄨㄥ`  ㄐㄧㄚ`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ㄒㄧㄤ` ㄓㄨ ㄨㄟ` ㄉㄧㄢˇ ㄔㄨㄢˊ ㄕ ㄘㄢ ㄐㄧㄝ  ㄘˊ ㄙㄨㄥ`  ㄐㄧㄚ`</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -740,7 +740,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -774,7 +774,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -859,7 +859,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
         <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,7 +944,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,7 +995,7 @@
         <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,7 +1046,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1091,13 +1091,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
         <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1125,13 +1125,13 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
         <v>33</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1159,13 +1159,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>33</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1193,13 +1193,13 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1216,7 +1216,7 @@
         <v>33</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1227,13 +1227,13 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>33</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1261,13 +1261,13 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1278,13 +1278,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
